--- a/experiment/output/results/TerraIncognita/CORAL/DG/0.xlsx
+++ b/experiment/output/results/TerraIncognita/CORAL/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,64 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250217_15-29-25_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>49.697</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.046</v>
+      </c>
+      <c r="F3" t="n">
+        <v>39.441</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250217_17-16-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment/output/results/TerraIncognita/CORAL/DG/0.xlsx
+++ b/experiment/output/results/TerraIncognita/CORAL/DG/0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,64 +507,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250217_15-29-25_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>49.697</v>
-      </c>
-      <c r="E3" t="n">
-        <v>39.046</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39.441</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250217_17-16-11_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
